--- a/data/pca/factorExposure/factorExposure_2015-07-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02081487376950132</v>
+        <v>0.01129495163196161</v>
       </c>
       <c r="C2">
-        <v>-0.02692757022251432</v>
+        <v>-0.05267323455584416</v>
       </c>
       <c r="D2">
-        <v>0.1298322401022153</v>
+        <v>-0.1467347755131727</v>
       </c>
       <c r="E2">
-        <v>-0.0009255786454921452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.007818554901201641</v>
+      </c>
+      <c r="F2">
+        <v>-0.01449391529247473</v>
+      </c>
+      <c r="G2">
+        <v>-0.1195036614264953</v>
+      </c>
+      <c r="H2">
+        <v>-0.07002516501602202</v>
+      </c>
+      <c r="I2">
+        <v>-0.02897414943324338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.004373179246876001</v>
+        <v>-0.001604292784180296</v>
       </c>
       <c r="C3">
-        <v>-0.01733898721141924</v>
+        <v>-0.01354227747777</v>
       </c>
       <c r="D3">
-        <v>0.01880096117219995</v>
+        <v>-0.01215073717007189</v>
       </c>
       <c r="E3">
-        <v>0.003571686257437357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01673431390335089</v>
+      </c>
+      <c r="F3">
+        <v>0.01220661794757053</v>
+      </c>
+      <c r="G3">
+        <v>-0.0008131255921352931</v>
+      </c>
+      <c r="H3">
+        <v>-0.008128068265055839</v>
+      </c>
+      <c r="I3">
+        <v>0.0215778192518346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04802436190596657</v>
+        <v>0.02252273435014724</v>
       </c>
       <c r="C4">
-        <v>-0.0701220654966344</v>
+        <v>-0.09981009104893014</v>
       </c>
       <c r="D4">
-        <v>0.1293298652492685</v>
+        <v>-0.1390997985612743</v>
       </c>
       <c r="E4">
-        <v>0.07292928043293141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01611604544376461</v>
+      </c>
+      <c r="F4">
+        <v>-0.08759176693224419</v>
+      </c>
+      <c r="G4">
+        <v>-0.006207144746811732</v>
+      </c>
+      <c r="H4">
+        <v>-0.04165316382385677</v>
+      </c>
+      <c r="I4">
+        <v>-0.03401082971557499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02689257679798096</v>
+        <v>0.03027137074401665</v>
       </c>
       <c r="C6">
-        <v>-0.01236821505542007</v>
+        <v>-0.0295385995703877</v>
       </c>
       <c r="D6">
-        <v>0.1442624685801783</v>
+        <v>-0.129847673501179</v>
       </c>
       <c r="E6">
-        <v>0.03434842934429277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04456145179480275</v>
+      </c>
+      <c r="F6">
+        <v>-0.05270350519563818</v>
+      </c>
+      <c r="G6">
+        <v>-0.01372151844141453</v>
+      </c>
+      <c r="H6">
+        <v>-0.06317909923777408</v>
+      </c>
+      <c r="I6">
+        <v>0.01856969680750648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009326619709039948</v>
+        <v>0.01039234509069598</v>
       </c>
       <c r="C7">
-        <v>-0.02361991764856819</v>
+        <v>-0.0338142850697206</v>
       </c>
       <c r="D7">
-        <v>0.1143922284371729</v>
+        <v>-0.1027763644687343</v>
       </c>
       <c r="E7">
-        <v>-0.00173889132499004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04754730228705276</v>
+      </c>
+      <c r="F7">
+        <v>-0.007250274782705256</v>
+      </c>
+      <c r="G7">
+        <v>0.006465352138819085</v>
+      </c>
+      <c r="H7">
+        <v>-0.07118286518164972</v>
+      </c>
+      <c r="I7">
+        <v>0.02553558277296675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001431362380037584</v>
+        <v>-0.00889663343852877</v>
       </c>
       <c r="C8">
-        <v>-0.02804117976542855</v>
+        <v>-0.03376485188275444</v>
       </c>
       <c r="D8">
-        <v>0.0821893095194124</v>
+        <v>-0.08190315831063975</v>
       </c>
       <c r="E8">
-        <v>0.02124022590830826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01799135256998536</v>
+      </c>
+      <c r="F8">
+        <v>-0.0422723537892181</v>
+      </c>
+      <c r="G8">
+        <v>-0.06997392224507087</v>
+      </c>
+      <c r="H8">
+        <v>-0.007365102287111505</v>
+      </c>
+      <c r="I8">
+        <v>0.0389030364525283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.04186651945106723</v>
+        <v>0.01823152184224349</v>
       </c>
       <c r="C9">
-        <v>-0.06124205929106378</v>
+        <v>-0.08452414214157455</v>
       </c>
       <c r="D9">
-        <v>0.1315864650029528</v>
+        <v>-0.1205676098002662</v>
       </c>
       <c r="E9">
-        <v>0.0571314492494274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005194894591348914</v>
+      </c>
+      <c r="F9">
+        <v>-0.05712420194051034</v>
+      </c>
+      <c r="G9">
+        <v>0.0149127148164577</v>
+      </c>
+      <c r="H9">
+        <v>-0.05568737817916011</v>
+      </c>
+      <c r="I9">
+        <v>-0.004510867764209022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1449610186798808</v>
+        <v>0.2257920557847756</v>
       </c>
       <c r="C10">
-        <v>0.1872949496187943</v>
+        <v>0.1061992652332814</v>
       </c>
       <c r="D10">
-        <v>0.01581935852188787</v>
+        <v>0.002919849511325912</v>
       </c>
       <c r="E10">
-        <v>0.04741567145269066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02374392812910484</v>
+      </c>
+      <c r="F10">
+        <v>-0.03908011177647549</v>
+      </c>
+      <c r="G10">
+        <v>-0.0004316725348685688</v>
+      </c>
+      <c r="H10">
+        <v>0.06028739839000694</v>
+      </c>
+      <c r="I10">
+        <v>0.1274852503227192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02437564505368436</v>
+        <v>0.01026428905193127</v>
       </c>
       <c r="C11">
-        <v>-0.03996704050656801</v>
+        <v>-0.05254574835882819</v>
       </c>
       <c r="D11">
-        <v>0.05259400527235628</v>
+        <v>-0.04555660444681768</v>
       </c>
       <c r="E11">
-        <v>-0.01599915895270615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01937211407985225</v>
+      </c>
+      <c r="F11">
+        <v>0.01075280314473935</v>
+      </c>
+      <c r="G11">
+        <v>0.007631336742573686</v>
+      </c>
+      <c r="H11">
+        <v>-0.04801408296605175</v>
+      </c>
+      <c r="I11">
+        <v>-0.03079636910507314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02688917810253177</v>
+        <v>0.01169391163277308</v>
       </c>
       <c r="C12">
-        <v>-0.04013669026716609</v>
+        <v>-0.04980848357159704</v>
       </c>
       <c r="D12">
-        <v>0.06554461653897957</v>
+        <v>-0.04951926178926834</v>
       </c>
       <c r="E12">
-        <v>-0.007274489289955366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0157117310382377</v>
+      </c>
+      <c r="F12">
+        <v>0.01548159726572216</v>
+      </c>
+      <c r="G12">
+        <v>0.02483285429617654</v>
+      </c>
+      <c r="H12">
+        <v>-0.0708675165225017</v>
+      </c>
+      <c r="I12">
+        <v>-0.01612440757800677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.008389501332320698</v>
+        <v>0.004524531362795393</v>
       </c>
       <c r="C13">
-        <v>-0.02882315766415116</v>
+        <v>-0.04528838057387558</v>
       </c>
       <c r="D13">
-        <v>0.1563358020229647</v>
+        <v>-0.1526403751174128</v>
       </c>
       <c r="E13">
-        <v>0.02636574671069513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03465521035786519</v>
+      </c>
+      <c r="F13">
+        <v>-0.03304904295404857</v>
+      </c>
+      <c r="G13">
+        <v>-0.03349322143885468</v>
+      </c>
+      <c r="H13">
+        <v>-0.07391577749782342</v>
+      </c>
+      <c r="I13">
+        <v>0.09024348369346097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001108623317395282</v>
+        <v>0.00162747592982522</v>
       </c>
       <c r="C14">
-        <v>-0.02279037807384105</v>
+        <v>-0.02926626515412516</v>
       </c>
       <c r="D14">
-        <v>0.1060925544348994</v>
+        <v>-0.1026657914216673</v>
       </c>
       <c r="E14">
-        <v>0.008494191394296876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.02866411983375431</v>
+      </c>
+      <c r="F14">
+        <v>-0.02287854388069359</v>
+      </c>
+      <c r="G14">
+        <v>-0.01059334020320782</v>
+      </c>
+      <c r="H14">
+        <v>-0.1192835934939888</v>
+      </c>
+      <c r="I14">
+        <v>0.01997887833202374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001031807547478521</v>
+        <v>-0.0007196505473666329</v>
       </c>
       <c r="C15">
-        <v>-0.01121016398149388</v>
+        <v>-0.01901879974055323</v>
       </c>
       <c r="D15">
-        <v>0.02506501607246868</v>
+        <v>-0.05194643915976874</v>
       </c>
       <c r="E15">
-        <v>-0.005105128668973636</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.005704061049177646</v>
+      </c>
+      <c r="F15">
+        <v>-0.003065085397210438</v>
+      </c>
+      <c r="G15">
+        <v>-0.01869920401649733</v>
+      </c>
+      <c r="H15">
+        <v>-0.01841571543853411</v>
+      </c>
+      <c r="I15">
+        <v>-0.01800699027137293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02425527127969653</v>
+        <v>0.01100046243429864</v>
       </c>
       <c r="C16">
-        <v>-0.03813106202321956</v>
+        <v>-0.04829930742222802</v>
       </c>
       <c r="D16">
-        <v>0.05908263322507579</v>
+        <v>-0.04649451643658573</v>
       </c>
       <c r="E16">
-        <v>-0.009826024965877792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02005660643667447</v>
+      </c>
+      <c r="F16">
+        <v>0.007672227645839558</v>
+      </c>
+      <c r="G16">
+        <v>0.01778825808514536</v>
+      </c>
+      <c r="H16">
+        <v>-0.05251995242374635</v>
+      </c>
+      <c r="I16">
+        <v>-0.0285894559730573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.009492411250661132</v>
+        <v>0.0009263908169089026</v>
       </c>
       <c r="C19">
-        <v>-0.02645753386439056</v>
+        <v>-0.02444023618356152</v>
       </c>
       <c r="D19">
-        <v>0.1281831447019773</v>
+        <v>-0.08126879514561354</v>
       </c>
       <c r="E19">
-        <v>0.04113177055672116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01907307658679057</v>
+      </c>
+      <c r="F19">
+        <v>-0.007604239534999408</v>
+      </c>
+      <c r="G19">
+        <v>-0.0145723798034198</v>
+      </c>
+      <c r="H19">
+        <v>-0.0766006468592208</v>
+      </c>
+      <c r="I19">
+        <v>0.03951736496681432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006780431006536978</v>
+        <v>0.004864361605253144</v>
       </c>
       <c r="C20">
-        <v>-0.02771805461381705</v>
+        <v>-0.03938367426544084</v>
       </c>
       <c r="D20">
-        <v>0.09388693722544117</v>
+        <v>-0.09894506768177526</v>
       </c>
       <c r="E20">
-        <v>0.03280405613390811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.00584193910874717</v>
+      </c>
+      <c r="F20">
+        <v>-0.02732494276469833</v>
+      </c>
+      <c r="G20">
+        <v>-0.0008871384736577111</v>
+      </c>
+      <c r="H20">
+        <v>-0.05734753868236288</v>
+      </c>
+      <c r="I20">
+        <v>0.006392983359525026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.011589732363927</v>
+        <v>0.004385805610156665</v>
       </c>
       <c r="C21">
-        <v>-0.03461385791211982</v>
+        <v>-0.04390692722630173</v>
       </c>
       <c r="D21">
-        <v>0.1668440590816256</v>
+        <v>-0.1355355650331787</v>
       </c>
       <c r="E21">
-        <v>0.06627402089665986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.005092290652578908</v>
+      </c>
+      <c r="F21">
+        <v>-0.07145921631414531</v>
+      </c>
+      <c r="G21">
+        <v>-0.01806596043533056</v>
+      </c>
+      <c r="H21">
+        <v>-0.1773864389137858</v>
+      </c>
+      <c r="I21">
+        <v>0.1143545348395014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.004410079851536766</v>
+        <v>-0.009490121048648716</v>
       </c>
       <c r="C22">
-        <v>-0.06156841467266817</v>
+        <v>-0.08009907599125221</v>
       </c>
       <c r="D22">
-        <v>0.2018980972058077</v>
+        <v>-0.2516002041197888</v>
       </c>
       <c r="E22">
-        <v>-0.0355254292206789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04035168369984656</v>
+      </c>
+      <c r="F22">
+        <v>-0.03168217918932997</v>
+      </c>
+      <c r="G22">
+        <v>-0.3503854103970799</v>
+      </c>
+      <c r="H22">
+        <v>0.3955068643645361</v>
+      </c>
+      <c r="I22">
+        <v>-0.1232961416990905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.004681810888319115</v>
+        <v>-0.009036797493999845</v>
       </c>
       <c r="C23">
-        <v>-0.06202123939975891</v>
+        <v>-0.08102111952393427</v>
       </c>
       <c r="D23">
-        <v>0.2014592981869533</v>
+        <v>-0.252200074942788</v>
       </c>
       <c r="E23">
-        <v>-0.03533778609308463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03729389188167456</v>
+      </c>
+      <c r="F23">
+        <v>-0.03103503705221307</v>
+      </c>
+      <c r="G23">
+        <v>-0.3491628627179829</v>
+      </c>
+      <c r="H23">
+        <v>0.3959968603984476</v>
+      </c>
+      <c r="I23">
+        <v>-0.125236727964098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03201751865493517</v>
+        <v>0.01116499937008713</v>
       </c>
       <c r="C24">
-        <v>-0.05484803849042343</v>
+        <v>-0.06498764355150052</v>
       </c>
       <c r="D24">
-        <v>0.07093354314220997</v>
+        <v>-0.05446201003956993</v>
       </c>
       <c r="E24">
-        <v>-0.00646326200206901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02371882281473868</v>
+      </c>
+      <c r="F24">
+        <v>0.005426011268008677</v>
+      </c>
+      <c r="G24">
+        <v>0.01159862615491803</v>
+      </c>
+      <c r="H24">
+        <v>-0.07611878370752291</v>
+      </c>
+      <c r="I24">
+        <v>-0.02729555534438436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03369741588053927</v>
+        <v>0.01457515489151569</v>
       </c>
       <c r="C25">
-        <v>-0.04628004506565856</v>
+        <v>-0.0603147668668895</v>
       </c>
       <c r="D25">
-        <v>0.06405727902191834</v>
+        <v>-0.0514709245273087</v>
       </c>
       <c r="E25">
-        <v>-0.0009655601068155469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01018530730755745</v>
+      </c>
+      <c r="F25">
+        <v>0.007158385648965288</v>
+      </c>
+      <c r="G25">
+        <v>0.01703671885356279</v>
+      </c>
+      <c r="H25">
+        <v>-0.04418308491588585</v>
+      </c>
+      <c r="I25">
+        <v>-0.01836139456489829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009703545254219638</v>
+        <v>0.008801444793557744</v>
       </c>
       <c r="C26">
-        <v>-0.01694748907529733</v>
+        <v>-0.02633623103291303</v>
       </c>
       <c r="D26">
-        <v>0.08144080651629962</v>
+        <v>-0.06990558182576626</v>
       </c>
       <c r="E26">
-        <v>0.01638359218203018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0214776299294476</v>
+      </c>
+      <c r="F26">
+        <v>-0.02237003952449518</v>
+      </c>
+      <c r="G26">
+        <v>0.002597260573791213</v>
+      </c>
+      <c r="H26">
+        <v>-0.08472304648343547</v>
+      </c>
+      <c r="I26">
+        <v>0.05195244811833084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2248933254155339</v>
+        <v>0.3186543405691283</v>
       </c>
       <c r="C28">
-        <v>0.2363751559364791</v>
+        <v>0.1170986703588322</v>
       </c>
       <c r="D28">
-        <v>0.02010333120093853</v>
+        <v>0.01143377459475317</v>
       </c>
       <c r="E28">
-        <v>0.06890956151616427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04988380956759933</v>
+      </c>
+      <c r="F28">
+        <v>-0.03641177797260814</v>
+      </c>
+      <c r="G28">
+        <v>-0.02218353386562684</v>
+      </c>
+      <c r="H28">
+        <v>0.02048357783388437</v>
+      </c>
+      <c r="I28">
+        <v>0.137292023212778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.003225357599041313</v>
+        <v>0.001254540609224571</v>
       </c>
       <c r="C29">
-        <v>-0.02415342848835432</v>
+        <v>-0.03139220914594935</v>
       </c>
       <c r="D29">
-        <v>0.1008189245902672</v>
+        <v>-0.09689630615176693</v>
       </c>
       <c r="E29">
-        <v>0.01050589374413075</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03889915791332794</v>
+      </c>
+      <c r="F29">
+        <v>-0.02836189530435864</v>
+      </c>
+      <c r="G29">
+        <v>0.0009964305874525269</v>
+      </c>
+      <c r="H29">
+        <v>-0.1211267287071738</v>
+      </c>
+      <c r="I29">
+        <v>0.02133157217105986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03162428479028358</v>
+        <v>0.01923121724161506</v>
       </c>
       <c r="C30">
-        <v>-0.05894690729184173</v>
+        <v>-0.08418465376513624</v>
       </c>
       <c r="D30">
-        <v>0.1680491168796994</v>
+        <v>-0.1636906558128467</v>
       </c>
       <c r="E30">
-        <v>0.01848667950609694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03797759702770651</v>
+      </c>
+      <c r="F30">
+        <v>-0.03665524546263806</v>
+      </c>
+      <c r="G30">
+        <v>-0.03215027706523479</v>
+      </c>
+      <c r="H30">
+        <v>-0.05189979878903635</v>
+      </c>
+      <c r="I30">
+        <v>-0.06353857358346841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05122694764383632</v>
+        <v>0.01209447611949203</v>
       </c>
       <c r="C31">
-        <v>-0.08312177828325269</v>
+        <v>-0.09308580165091919</v>
       </c>
       <c r="D31">
-        <v>0.07176020406312972</v>
+        <v>-0.04256324762086098</v>
       </c>
       <c r="E31">
-        <v>0.01210109885808917</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008361190984141047</v>
+      </c>
+      <c r="F31">
+        <v>-0.01241825782433892</v>
+      </c>
+      <c r="G31">
+        <v>-0.003970251935906343</v>
+      </c>
+      <c r="H31">
+        <v>-0.04788767057050217</v>
+      </c>
+      <c r="I31">
+        <v>0.07388595577592345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02187509808685784</v>
+        <v>0.01053810550485954</v>
       </c>
       <c r="C32">
-        <v>-0.03682434143299521</v>
+        <v>-0.04555407116162736</v>
       </c>
       <c r="D32">
-        <v>0.1060772372616966</v>
+        <v>-0.1117615128937604</v>
       </c>
       <c r="E32">
-        <v>0.06340789891475188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.008545177170233606</v>
+      </c>
+      <c r="F32">
+        <v>-0.04504295411572216</v>
+      </c>
+      <c r="G32">
+        <v>-0.02997327765086034</v>
+      </c>
+      <c r="H32">
+        <v>-0.03963742002585641</v>
+      </c>
+      <c r="I32">
+        <v>0.08171517462893862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01900741927625708</v>
+        <v>0.008805860159893901</v>
       </c>
       <c r="C33">
-        <v>-0.0429251816670987</v>
+        <v>-0.05767581250499569</v>
       </c>
       <c r="D33">
-        <v>0.1498436349145874</v>
+        <v>-0.1289321123976893</v>
       </c>
       <c r="E33">
-        <v>0.0385837154122213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01120623515339574</v>
+      </c>
+      <c r="F33">
+        <v>-0.02739332868530621</v>
+      </c>
+      <c r="G33">
+        <v>-0.01107480254497751</v>
+      </c>
+      <c r="H33">
+        <v>-0.07172956017527324</v>
+      </c>
+      <c r="I33">
+        <v>0.02074891954129188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02860258248079972</v>
+        <v>0.007539406782862062</v>
       </c>
       <c r="C34">
-        <v>-0.05644724944591921</v>
+        <v>-0.06149481720589215</v>
       </c>
       <c r="D34">
-        <v>0.0507701857606856</v>
+        <v>-0.03260537382904662</v>
       </c>
       <c r="E34">
-        <v>-0.0476926350194159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02815220828506895</v>
+      </c>
+      <c r="F34">
+        <v>0.03453780273711669</v>
+      </c>
+      <c r="G34">
+        <v>0.01183529822612355</v>
+      </c>
+      <c r="H34">
+        <v>-0.05921019894814332</v>
+      </c>
+      <c r="I34">
+        <v>-0.005325839255065096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001355506269105926</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004586858067572256</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.01493475243713987</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003359319542759221</v>
+      </c>
+      <c r="F35">
+        <v>-0.001587185350938314</v>
+      </c>
+      <c r="G35">
+        <v>0.002971149122321981</v>
+      </c>
+      <c r="H35">
+        <v>-0.01239124749800645</v>
+      </c>
+      <c r="I35">
+        <v>-0.004985841930355906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009546095985227767</v>
+        <v>0.00953879213017586</v>
       </c>
       <c r="C36">
-        <v>-0.008159867912201248</v>
+        <v>-0.02030647340270866</v>
       </c>
       <c r="D36">
-        <v>0.09498542028601056</v>
+        <v>-0.07934323321016505</v>
       </c>
       <c r="E36">
-        <v>0.04022050221208424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.005509399621986616</v>
+      </c>
+      <c r="F36">
+        <v>-0.03521734172973084</v>
+      </c>
+      <c r="G36">
+        <v>-0.001753672771792698</v>
+      </c>
+      <c r="H36">
+        <v>-0.06180351268495951</v>
+      </c>
+      <c r="I36">
+        <v>0.03447498997764051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.00819707031908753</v>
+        <v>0.01515737412035234</v>
       </c>
       <c r="C38">
-        <v>-0.00825642343463746</v>
+        <v>-0.01559569947280814</v>
       </c>
       <c r="D38">
-        <v>0.08833335752595942</v>
+        <v>-0.0843865558915415</v>
       </c>
       <c r="E38">
-        <v>0.009320809752866413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01212075132517354</v>
+      </c>
+      <c r="F38">
+        <v>0.007558616900738771</v>
+      </c>
+      <c r="G38">
+        <v>-0.02349516886875002</v>
+      </c>
+      <c r="H38">
+        <v>-0.05496452340305675</v>
+      </c>
+      <c r="I38">
+        <v>0.037082678429772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02520492076496576</v>
+        <v>0.007633950345818458</v>
       </c>
       <c r="C39">
-        <v>-0.05643898982902203</v>
+        <v>-0.07559788859621656</v>
       </c>
       <c r="D39">
-        <v>0.1183329224655068</v>
+        <v>-0.1078014669383983</v>
       </c>
       <c r="E39">
-        <v>-0.02098225773485126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04675846691646281</v>
+      </c>
+      <c r="F39">
+        <v>0.004596593332882915</v>
+      </c>
+      <c r="G39">
+        <v>0.01382202580516356</v>
+      </c>
+      <c r="H39">
+        <v>-0.1014583170214477</v>
+      </c>
+      <c r="I39">
+        <v>-0.06034902463665066</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01324893227942079</v>
+        <v>0.01228633102343626</v>
       </c>
       <c r="C40">
-        <v>-0.01793096854180787</v>
+        <v>-0.02656686930893825</v>
       </c>
       <c r="D40">
-        <v>0.1148925594063493</v>
+        <v>-0.09618371762978725</v>
       </c>
       <c r="E40">
-        <v>-0.0245897114016702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.03950708809244801</v>
+      </c>
+      <c r="F40">
+        <v>0.02548042807456179</v>
+      </c>
+      <c r="G40">
+        <v>-0.06948430372990515</v>
+      </c>
+      <c r="H40">
+        <v>-0.07231340536282449</v>
+      </c>
+      <c r="I40">
+        <v>0.06693715384845546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01379914303132483</v>
+        <v>0.01191495573236365</v>
       </c>
       <c r="C41">
-        <v>-0.009863373963537014</v>
+        <v>-0.01833577404094901</v>
       </c>
       <c r="D41">
-        <v>0.0615221885688518</v>
+        <v>-0.04372882283623666</v>
       </c>
       <c r="E41">
-        <v>0.03305441287774977</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0233679303240059</v>
+      </c>
+      <c r="F41">
+        <v>-0.01672866701909031</v>
+      </c>
+      <c r="G41">
+        <v>-0.01686477728751191</v>
+      </c>
+      <c r="H41">
+        <v>-0.04893626064395727</v>
+      </c>
+      <c r="I41">
+        <v>0.05014030888756332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008489697988283236</v>
+        <v>0.005764916840517088</v>
       </c>
       <c r="C43">
-        <v>-0.01393449873386506</v>
+        <v>-0.0192541039574988</v>
       </c>
       <c r="D43">
-        <v>0.07528592838391088</v>
+        <v>-0.05539559980471478</v>
       </c>
       <c r="E43">
-        <v>0.02394757478930127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.007927362103856353</v>
+      </c>
+      <c r="F43">
+        <v>-0.01543996360537062</v>
+      </c>
+      <c r="G43">
+        <v>-0.01828555740878244</v>
+      </c>
+      <c r="H43">
+        <v>-0.07422838343817358</v>
+      </c>
+      <c r="I43">
+        <v>0.04235655059808149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01998797063081277</v>
+        <v>0.01277002883429595</v>
       </c>
       <c r="C44">
-        <v>-0.0276960974016902</v>
+        <v>-0.04704062776772697</v>
       </c>
       <c r="D44">
-        <v>0.1175804820312376</v>
+        <v>-0.1203561883465716</v>
       </c>
       <c r="E44">
-        <v>0.03997829960358788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01965574776629292</v>
+      </c>
+      <c r="F44">
+        <v>-0.02630978711028596</v>
+      </c>
+      <c r="G44">
+        <v>-0.02063646348488845</v>
+      </c>
+      <c r="H44">
+        <v>-0.04559281511804521</v>
+      </c>
+      <c r="I44">
+        <v>-0.05276782401984401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01255905655996362</v>
+        <v>8.541611554075162e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03147731552533769</v>
+        <v>-0.04192513428571961</v>
       </c>
       <c r="D46">
-        <v>0.09950692905380426</v>
+        <v>-0.08480034665510437</v>
       </c>
       <c r="E46">
-        <v>0.01846331787298915</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02245302490259621</v>
+      </c>
+      <c r="F46">
+        <v>-0.02652906001025865</v>
+      </c>
+      <c r="G46">
+        <v>-0.01490334844493298</v>
+      </c>
+      <c r="H46">
+        <v>-0.1371261937901345</v>
+      </c>
+      <c r="I46">
+        <v>0.02698265488961519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09442626932030096</v>
+        <v>0.03923544803183267</v>
       </c>
       <c r="C47">
-        <v>-0.09791772491571206</v>
+        <v>-0.1228597459964877</v>
       </c>
       <c r="D47">
-        <v>0.05917452284690927</v>
+        <v>-0.02375978207163172</v>
       </c>
       <c r="E47">
-        <v>0.02623307652575869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01893386691724178</v>
+      </c>
+      <c r="F47">
+        <v>0.01326158358281214</v>
+      </c>
+      <c r="G47">
+        <v>0.04763717542158635</v>
+      </c>
+      <c r="H47">
+        <v>-0.0375705452402816</v>
+      </c>
+      <c r="I47">
+        <v>0.1361033074734161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006995708215477059</v>
+        <v>0.007381426248638916</v>
       </c>
       <c r="C48">
-        <v>-0.0178537413349717</v>
+        <v>-0.02836479485553715</v>
       </c>
       <c r="D48">
-        <v>0.0948329498915928</v>
+        <v>-0.08215078471796296</v>
       </c>
       <c r="E48">
-        <v>0.05290701004800064</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.007430156336173545</v>
+      </c>
+      <c r="F48">
+        <v>-0.03932899438892721</v>
+      </c>
+      <c r="G48">
+        <v>-0.008774493214981005</v>
+      </c>
+      <c r="H48">
+        <v>-0.09142270438480428</v>
+      </c>
+      <c r="I48">
+        <v>0.02552889711370449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04683999124409485</v>
+        <v>0.01409702832983858</v>
       </c>
       <c r="C50">
-        <v>-0.06059015606032507</v>
+        <v>-0.07544495762670321</v>
       </c>
       <c r="D50">
-        <v>0.07171666844958351</v>
+        <v>-0.04818740420885803</v>
       </c>
       <c r="E50">
-        <v>0.007807953176213433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.001077762036162103</v>
+      </c>
+      <c r="F50">
+        <v>-0.007678832226850671</v>
+      </c>
+      <c r="G50">
+        <v>-0.02457667577294318</v>
+      </c>
+      <c r="H50">
+        <v>-0.03812807357729114</v>
+      </c>
+      <c r="I50">
+        <v>0.12609101876325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.005444904829951307</v>
+        <v>0.003770652247330187</v>
       </c>
       <c r="C51">
-        <v>-0.005726336520220463</v>
+        <v>-0.01794975825925276</v>
       </c>
       <c r="D51">
-        <v>0.06504124217969445</v>
+        <v>-0.07014763729690909</v>
       </c>
       <c r="E51">
-        <v>0.00225043446767805</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03609287785143991</v>
+      </c>
+      <c r="F51">
+        <v>-0.03621685477293822</v>
+      </c>
+      <c r="G51">
+        <v>-0.03679864288631938</v>
+      </c>
+      <c r="H51">
+        <v>-0.04931026575723906</v>
+      </c>
+      <c r="I51">
+        <v>0.00642721297545139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1213686298053314</v>
+        <v>0.06265190317518782</v>
       </c>
       <c r="C53">
-        <v>-0.1106247069086094</v>
+        <v>-0.155560554898119</v>
       </c>
       <c r="D53">
-        <v>0.01780669917501209</v>
+        <v>0.01492443444466526</v>
       </c>
       <c r="E53">
-        <v>0.05694304858488124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03493193304996924</v>
+      </c>
+      <c r="F53">
+        <v>-0.04770512103664822</v>
+      </c>
+      <c r="G53">
+        <v>-0.01027682282752723</v>
+      </c>
+      <c r="H53">
+        <v>-0.003297271882669949</v>
+      </c>
+      <c r="I53">
+        <v>0.08461317669428825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02025926196988126</v>
+        <v>0.01190687540302829</v>
       </c>
       <c r="C54">
-        <v>-0.02377767873688138</v>
+        <v>-0.04104566163458153</v>
       </c>
       <c r="D54">
-        <v>0.1080311428202502</v>
+        <v>-0.08460303314619762</v>
       </c>
       <c r="E54">
-        <v>0.002020540177390263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009263067770866339</v>
+      </c>
+      <c r="F54">
+        <v>0.002443390806228887</v>
+      </c>
+      <c r="G54">
+        <v>-0.02385431946290093</v>
+      </c>
+      <c r="H54">
+        <v>-0.09485788032371018</v>
+      </c>
+      <c r="I54">
+        <v>0.05325957444253188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1067025905755016</v>
+        <v>0.05006079904753789</v>
       </c>
       <c r="C55">
-        <v>-0.09202079947356437</v>
+        <v>-0.1262992055813824</v>
       </c>
       <c r="D55">
-        <v>0.005115442276428551</v>
+        <v>0.02748103913116673</v>
       </c>
       <c r="E55">
-        <v>0.01424237807734444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0003518644993243849</v>
+      </c>
+      <c r="F55">
+        <v>-0.01544721596547435</v>
+      </c>
+      <c r="G55">
+        <v>-0.01723426634300931</v>
+      </c>
+      <c r="H55">
+        <v>-0.01030966489667428</v>
+      </c>
+      <c r="I55">
+        <v>0.08708719313978762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1487231253925489</v>
+        <v>0.06941935108982629</v>
       </c>
       <c r="C56">
-        <v>-0.1206002133487453</v>
+        <v>-0.1833002535289562</v>
       </c>
       <c r="D56">
-        <v>0.003550785822032785</v>
+        <v>0.02592636895748499</v>
       </c>
       <c r="E56">
-        <v>0.015392834155285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03268169577588424</v>
+      </c>
+      <c r="F56">
+        <v>-0.01501053818985608</v>
+      </c>
+      <c r="G56">
+        <v>-0.06093592879389801</v>
+      </c>
+      <c r="H56">
+        <v>0.004751176507790436</v>
+      </c>
+      <c r="I56">
+        <v>0.1083274030247829</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.002208410790781944</v>
+        <v>0.007534495558218742</v>
       </c>
       <c r="C58">
-        <v>-0.01737533807088206</v>
+        <v>-0.0496443294608377</v>
       </c>
       <c r="D58">
-        <v>0.2269249906635758</v>
+        <v>-0.2852361102658793</v>
       </c>
       <c r="E58">
-        <v>0.07671544247253689</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02544665797425812</v>
+      </c>
+      <c r="F58">
+        <v>-0.09381635690151786</v>
+      </c>
+      <c r="G58">
+        <v>-0.1256615783422416</v>
+      </c>
+      <c r="H58">
+        <v>0.09978426579235683</v>
+      </c>
+      <c r="I58">
+        <v>-0.05831443210447297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1562890228471008</v>
+        <v>0.245176255329889</v>
       </c>
       <c r="C59">
-        <v>0.1731070534814883</v>
+        <v>0.08271356193975954</v>
       </c>
       <c r="D59">
-        <v>0.05252008414895816</v>
+        <v>-0.05914236187417791</v>
       </c>
       <c r="E59">
-        <v>0.03637263928221883</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03096894679462471</v>
+      </c>
+      <c r="F59">
+        <v>-0.01525228857079667</v>
+      </c>
+      <c r="G59">
+        <v>0.001286188066961377</v>
+      </c>
+      <c r="H59">
+        <v>0.01922491015850025</v>
+      </c>
+      <c r="I59">
+        <v>0.0291928720437101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2052013192189339</v>
+        <v>0.1564404491062837</v>
       </c>
       <c r="C60">
-        <v>-0.08114950003338681</v>
+        <v>-0.1691178811286488</v>
       </c>
       <c r="D60">
-        <v>0.1630334180017929</v>
+        <v>-0.08719518825184089</v>
       </c>
       <c r="E60">
-        <v>-0.191739257616786</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2299950708724934</v>
+      </c>
+      <c r="F60">
+        <v>0.1633394460250299</v>
+      </c>
+      <c r="G60">
+        <v>0.2245426900026977</v>
+      </c>
+      <c r="H60">
+        <v>0.2012599537932105</v>
+      </c>
+      <c r="I60">
+        <v>-0.04968344175501748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03586919824583752</v>
+        <v>0.01516822203022289</v>
       </c>
       <c r="C61">
-        <v>-0.05199469140608384</v>
+        <v>-0.07148705499967641</v>
       </c>
       <c r="D61">
-        <v>0.1100494120296977</v>
+        <v>-0.08565986768438197</v>
       </c>
       <c r="E61">
-        <v>-0.007764514636682781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03481004910923385</v>
+      </c>
+      <c r="F61">
+        <v>0.01351308418020578</v>
+      </c>
+      <c r="G61">
+        <v>0.02924841333950747</v>
+      </c>
+      <c r="H61">
+        <v>-0.09535839763552885</v>
+      </c>
+      <c r="I61">
+        <v>-0.01660284588289861</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01174106185240349</v>
+        <v>0.003921846261314896</v>
       </c>
       <c r="C63">
-        <v>-0.02589048589543689</v>
+        <v>-0.03609176557945717</v>
       </c>
       <c r="D63">
-        <v>0.09503092890025813</v>
+        <v>-0.07176718437082726</v>
       </c>
       <c r="E63">
-        <v>0.0128571601302832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02617916615421201</v>
+      </c>
+      <c r="F63">
+        <v>-0.02261058423480184</v>
+      </c>
+      <c r="G63">
+        <v>-0.009605962715084355</v>
+      </c>
+      <c r="H63">
+        <v>-0.06276704432746835</v>
+      </c>
+      <c r="I63">
+        <v>0.009186713635940083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06827705389299371</v>
+        <v>0.02407559006453145</v>
       </c>
       <c r="C64">
-        <v>-0.07821235537493643</v>
+        <v>-0.1049941360641415</v>
       </c>
       <c r="D64">
-        <v>0.04308187727708555</v>
+        <v>-0.02963667950826849</v>
       </c>
       <c r="E64">
-        <v>0.0190865600348842</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02818231567332224</v>
+      </c>
+      <c r="F64">
+        <v>-0.02341946036784605</v>
+      </c>
+      <c r="G64">
+        <v>0.05131053190581029</v>
+      </c>
+      <c r="H64">
+        <v>-0.1121416262603107</v>
+      </c>
+      <c r="I64">
+        <v>-0.05531537471127591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.029648098887939</v>
+        <v>0.02513812475092306</v>
       </c>
       <c r="C65">
-        <v>-0.01538379222227206</v>
+        <v>-0.03930898631921217</v>
       </c>
       <c r="D65">
-        <v>0.1190720790342283</v>
+        <v>-0.1186579241719623</v>
       </c>
       <c r="E65">
-        <v>0.00282758396700721</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04442437613427845</v>
+      </c>
+      <c r="F65">
+        <v>-0.005402422673175192</v>
+      </c>
+      <c r="G65">
+        <v>0.01829998125302505</v>
+      </c>
+      <c r="H65">
+        <v>-0.04848242008721087</v>
+      </c>
+      <c r="I65">
+        <v>0.00371988628123802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02869050825224094</v>
+        <v>0.005691473393716039</v>
       </c>
       <c r="C66">
-        <v>-0.06307897492146555</v>
+        <v>-0.09053336101014449</v>
       </c>
       <c r="D66">
-        <v>0.1223357356105506</v>
+        <v>-0.1307143967401058</v>
       </c>
       <c r="E66">
-        <v>-0.02504678528632916</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0331090424968395</v>
+      </c>
+      <c r="F66">
+        <v>0.01283119295656529</v>
+      </c>
+      <c r="G66">
+        <v>-0.0007626103681435096</v>
+      </c>
+      <c r="H66">
+        <v>-0.05571515668280652</v>
+      </c>
+      <c r="I66">
+        <v>-0.06583640398336379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02879793577466562</v>
+        <v>0.02558745146860838</v>
       </c>
       <c r="C67">
-        <v>-0.01758586870015351</v>
+        <v>-0.027706949896125</v>
       </c>
       <c r="D67">
-        <v>0.04462548800253958</v>
+        <v>-0.03481383908443027</v>
       </c>
       <c r="E67">
-        <v>-0.01534003159083906</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003218835027481456</v>
+      </c>
+      <c r="F67">
+        <v>0.02936000312963443</v>
+      </c>
+      <c r="G67">
+        <v>-0.01096930508586433</v>
+      </c>
+      <c r="H67">
+        <v>-0.06490907089782141</v>
+      </c>
+      <c r="I67">
+        <v>0.02758641172795566</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1803612601865056</v>
+        <v>0.2637907717513861</v>
       </c>
       <c r="C68">
-        <v>0.1855451774959025</v>
+        <v>0.08179095701540687</v>
       </c>
       <c r="D68">
-        <v>0.03162404095032782</v>
+        <v>-0.0342591705775647</v>
       </c>
       <c r="E68">
-        <v>0.01434616650223731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004671732034954029</v>
+      </c>
+      <c r="F68">
+        <v>-0.03029080282575583</v>
+      </c>
+      <c r="G68">
+        <v>-0.06482231891383616</v>
+      </c>
+      <c r="H68">
+        <v>0.03994354310888661</v>
+      </c>
+      <c r="I68">
+        <v>0.09589105644294109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07366701580947331</v>
+        <v>0.02474873544867449</v>
       </c>
       <c r="C69">
-        <v>-0.1113550376816894</v>
+        <v>-0.1205042204443506</v>
       </c>
       <c r="D69">
-        <v>0.08229281424927083</v>
+        <v>-0.03725961256142879</v>
       </c>
       <c r="E69">
-        <v>0.01257599473602425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.00180095173666164</v>
+      </c>
+      <c r="F69">
+        <v>0.01419522829728958</v>
+      </c>
+      <c r="G69">
+        <v>0.03127576471076576</v>
+      </c>
+      <c r="H69">
+        <v>-0.04112320097995843</v>
+      </c>
+      <c r="I69">
+        <v>0.09374861541245159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1863840857436796</v>
+        <v>0.26580972556214</v>
       </c>
       <c r="C71">
-        <v>0.2032637139406895</v>
+        <v>0.09621118092877681</v>
       </c>
       <c r="D71">
-        <v>0.02885004519220217</v>
+        <v>-0.0204965621396741</v>
       </c>
       <c r="E71">
-        <v>0.01613377665369021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.009305508451052396</v>
+      </c>
+      <c r="F71">
+        <v>-0.01612328537057101</v>
+      </c>
+      <c r="G71">
+        <v>-0.04047778629532271</v>
+      </c>
+      <c r="H71">
+        <v>-0.01491901722512565</v>
+      </c>
+      <c r="I71">
+        <v>0.1680893588211324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1159257564516058</v>
+        <v>0.06508042493551075</v>
       </c>
       <c r="C72">
-        <v>-0.06368678379722494</v>
+        <v>-0.1222586681364861</v>
       </c>
       <c r="D72">
-        <v>0.09800120102308295</v>
+        <v>-0.06320972803136062</v>
       </c>
       <c r="E72">
-        <v>-0.04918165394579133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08892008348546601</v>
+      </c>
+      <c r="F72">
+        <v>0.01614170759068611</v>
+      </c>
+      <c r="G72">
+        <v>0.0314305090701576</v>
+      </c>
+      <c r="H72">
+        <v>-0.05717927953561586</v>
+      </c>
+      <c r="I72">
+        <v>-0.04068988130867903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1853034738940187</v>
+        <v>0.1428897744022229</v>
       </c>
       <c r="C73">
-        <v>-0.04038717870550162</v>
+        <v>-0.134536236950955</v>
       </c>
       <c r="D73">
-        <v>0.2263707995026763</v>
+        <v>-0.09885621111638067</v>
       </c>
       <c r="E73">
-        <v>-0.2909113650523334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3806987918923126</v>
+      </c>
+      <c r="F73">
+        <v>0.2435960711886662</v>
+      </c>
+      <c r="G73">
+        <v>0.4282439615188891</v>
+      </c>
+      <c r="H73">
+        <v>0.1709368376199674</v>
+      </c>
+      <c r="I73">
+        <v>-0.06742968821864677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1192813983333518</v>
+        <v>0.05779625757280956</v>
       </c>
       <c r="C74">
-        <v>-0.09896759019610905</v>
+        <v>-0.1418131776693754</v>
       </c>
       <c r="D74">
-        <v>-0.02357991658212847</v>
+        <v>0.04373406012565344</v>
       </c>
       <c r="E74">
-        <v>0.04367037784244671</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01239317740550625</v>
+      </c>
+      <c r="F74">
+        <v>-0.04502049324147771</v>
+      </c>
+      <c r="G74">
+        <v>-0.005837901815621703</v>
+      </c>
+      <c r="H74">
+        <v>0.01215057727481371</v>
+      </c>
+      <c r="I74">
+        <v>0.1116261708854655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2570075156792865</v>
+        <v>0.1295368513643839</v>
       </c>
       <c r="C75">
-        <v>-0.1671634304341139</v>
+        <v>-0.26345778206249</v>
       </c>
       <c r="D75">
-        <v>-0.1066900048901254</v>
+        <v>0.1381544026326251</v>
       </c>
       <c r="E75">
-        <v>-0.009136385079128501</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08580314010217815</v>
+      </c>
+      <c r="F75">
+        <v>0.03812790626390722</v>
+      </c>
+      <c r="G75">
+        <v>-0.09987948515853148</v>
+      </c>
+      <c r="H75">
+        <v>0.003728489889802986</v>
+      </c>
+      <c r="I75">
+        <v>0.08890562843857115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1577511367962839</v>
+        <v>0.07259353791560119</v>
       </c>
       <c r="C76">
-        <v>-0.1212945208353856</v>
+        <v>-0.1816392398873913</v>
       </c>
       <c r="D76">
-        <v>0.01531004233000085</v>
+        <v>0.03261915006831824</v>
       </c>
       <c r="E76">
-        <v>0.01522160995185701</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02739830150985968</v>
+      </c>
+      <c r="F76">
+        <v>-0.004619533921574323</v>
+      </c>
+      <c r="G76">
+        <v>-0.05093406030102793</v>
+      </c>
+      <c r="H76">
+        <v>-0.03595698294794431</v>
+      </c>
+      <c r="I76">
+        <v>0.1137151800713029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02714266024772609</v>
+        <v>0.03171765121021654</v>
       </c>
       <c r="C77">
-        <v>-0.07989392783107878</v>
+        <v>-0.0943366046757925</v>
       </c>
       <c r="D77">
-        <v>0.07586915192345933</v>
+        <v>-0.2515027611556971</v>
       </c>
       <c r="E77">
-        <v>0.2145944272208223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7677015738817813</v>
+      </c>
+      <c r="F77">
+        <v>0.3226289490029374</v>
+      </c>
+      <c r="G77">
+        <v>0.296656224955668</v>
+      </c>
+      <c r="H77">
+        <v>0.2503038669022635</v>
+      </c>
+      <c r="I77">
+        <v>0.03385748382280308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03358471047475286</v>
+        <v>0.0176411793191588</v>
       </c>
       <c r="C78">
-        <v>-0.06779867925778781</v>
+        <v>-0.08741775009541915</v>
       </c>
       <c r="D78">
-        <v>0.1558167699393758</v>
+        <v>-0.1416064831075524</v>
       </c>
       <c r="E78">
-        <v>0.03320447496649885</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0442913622158567</v>
+      </c>
+      <c r="F78">
+        <v>-0.04673902214601268</v>
+      </c>
+      <c r="G78">
+        <v>-0.03647564667582957</v>
+      </c>
+      <c r="H78">
+        <v>-0.02043888815476518</v>
+      </c>
+      <c r="I78">
+        <v>0.03392134149132371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1050432305556274</v>
+        <v>0.04227776180729488</v>
       </c>
       <c r="C79">
-        <v>-0.1478784439860394</v>
+        <v>-0.1779768233638837</v>
       </c>
       <c r="D79">
-        <v>-0.1062645896325641</v>
+        <v>0.07306058352704234</v>
       </c>
       <c r="E79">
-        <v>0.7889068908468626</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1109232721408951</v>
+      </c>
+      <c r="F79">
+        <v>-0.8102861793600796</v>
+      </c>
+      <c r="G79">
+        <v>0.3844356528456647</v>
+      </c>
+      <c r="H79">
+        <v>0.2210823573670582</v>
+      </c>
+      <c r="I79">
+        <v>-0.1465133704344572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009701341198601922</v>
+        <v>-0.0005658018925963404</v>
       </c>
       <c r="C80">
-        <v>-0.04863925264227938</v>
+        <v>-0.04851487092276937</v>
       </c>
       <c r="D80">
-        <v>0.04762568027660421</v>
+        <v>-0.04560368210951491</v>
       </c>
       <c r="E80">
-        <v>-0.003766697628220813</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02008320490872172</v>
+      </c>
+      <c r="F80">
+        <v>-0.009431448365653305</v>
+      </c>
+      <c r="G80">
+        <v>-0.03990216421725601</v>
+      </c>
+      <c r="H80">
+        <v>-0.02324892398239234</v>
+      </c>
+      <c r="I80">
+        <v>0.05885503562805239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1354671301364564</v>
+        <v>0.05563240303452144</v>
       </c>
       <c r="C81">
-        <v>-0.1170440391111701</v>
+        <v>-0.164318271029294</v>
       </c>
       <c r="D81">
-        <v>-0.06467200651620618</v>
+        <v>0.07925325332407848</v>
       </c>
       <c r="E81">
-        <v>0.06926501663807538</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06871206146590629</v>
+      </c>
+      <c r="F81">
+        <v>-0.04313088096376479</v>
+      </c>
+      <c r="G81">
+        <v>-0.04674452788682779</v>
+      </c>
+      <c r="H81">
+        <v>-0.06240390995509434</v>
+      </c>
+      <c r="I81">
+        <v>0.1322150015991646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2850219996696591</v>
+        <v>0.114660076265224</v>
       </c>
       <c r="C82">
-        <v>-0.2597640867371143</v>
+        <v>-0.3248005146619709</v>
       </c>
       <c r="D82">
-        <v>-0.2095786210996417</v>
+        <v>0.2305069460109739</v>
       </c>
       <c r="E82">
-        <v>-0.1170368256028777</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04096641911724085</v>
+      </c>
+      <c r="F82">
+        <v>0.1272775933336031</v>
+      </c>
+      <c r="G82">
+        <v>-0.06669707951129136</v>
+      </c>
+      <c r="H82">
+        <v>-0.09555408364189186</v>
+      </c>
+      <c r="I82">
+        <v>0.05639871818594299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.0006778394368219926</v>
+        <v>-0.008691637770401689</v>
       </c>
       <c r="C83">
-        <v>-0.05778185231078935</v>
+        <v>-0.03582581844921144</v>
       </c>
       <c r="D83">
-        <v>0.02341136426405054</v>
+        <v>-0.04328878983019475</v>
       </c>
       <c r="E83">
-        <v>0.06159175533586266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09534111010044297</v>
+      </c>
+      <c r="F83">
+        <v>-0.0291890255035127</v>
+      </c>
+      <c r="G83">
+        <v>-0.04994775348202377</v>
+      </c>
+      <c r="H83">
+        <v>-0.04076706905211226</v>
+      </c>
+      <c r="I83">
+        <v>0.08967885919109188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0001794253951440697</v>
+        <v>-0.001655376251631745</v>
       </c>
       <c r="C84">
-        <v>-0.0002178234083795969</v>
+        <v>-0.01570422217919274</v>
       </c>
       <c r="D84">
-        <v>0.0008246772980875783</v>
+        <v>-0.03893856285051968</v>
       </c>
       <c r="E84">
-        <v>0.0006564753751734516</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.009275660539648175</v>
+      </c>
+      <c r="F84">
+        <v>-0.01507183530139704</v>
+      </c>
+      <c r="G84">
+        <v>-0.04548497661044204</v>
+      </c>
+      <c r="H84">
+        <v>0.004220440232116108</v>
+      </c>
+      <c r="I84">
+        <v>-0.03253238971710012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1596562301113362</v>
+        <v>0.07035166400718912</v>
       </c>
       <c r="C85">
-        <v>-0.1222527949755352</v>
+        <v>-0.1841498223916892</v>
       </c>
       <c r="D85">
-        <v>-0.04824326084759643</v>
+        <v>0.09367840962430783</v>
       </c>
       <c r="E85">
-        <v>0.02648674615035744</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.003973369156193355</v>
+      </c>
+      <c r="F85">
+        <v>-0.07587061750312425</v>
+      </c>
+      <c r="G85">
+        <v>-0.03624390892812983</v>
+      </c>
+      <c r="H85">
+        <v>-0.00727844445502709</v>
+      </c>
+      <c r="I85">
+        <v>0.09508418463862471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01441148454761421</v>
+        <v>0.01239395978939176</v>
       </c>
       <c r="C86">
-        <v>-0.01581117937724419</v>
+        <v>-0.03103216734235469</v>
       </c>
       <c r="D86">
-        <v>0.0895598364964536</v>
+        <v>-0.1109009990540036</v>
       </c>
       <c r="E86">
-        <v>0.0494841660524545</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04273084450541944</v>
+      </c>
+      <c r="F86">
+        <v>0.0120210560060813</v>
+      </c>
+      <c r="G86">
+        <v>0.0231256970503279</v>
+      </c>
+      <c r="H86">
+        <v>-0.003690026019531476</v>
+      </c>
+      <c r="I86">
+        <v>0.08771222311062125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01799914621085644</v>
+        <v>0.01143286452068177</v>
       </c>
       <c r="C87">
-        <v>-0.02921327175316808</v>
+        <v>-0.05563021664778258</v>
       </c>
       <c r="D87">
-        <v>0.1251355290415427</v>
+        <v>-0.1441688173773461</v>
       </c>
       <c r="E87">
-        <v>0.04317154612362716</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01020930972729254</v>
+      </c>
+      <c r="F87">
+        <v>-0.03880940193796029</v>
+      </c>
+      <c r="G87">
+        <v>-0.06609923222583319</v>
+      </c>
+      <c r="H87">
+        <v>-0.01947173036283543</v>
+      </c>
+      <c r="I87">
+        <v>-0.04074703791210388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0626863157671943</v>
+        <v>0.03182615510628109</v>
       </c>
       <c r="C88">
-        <v>-0.04473237102133198</v>
+        <v>-0.06973597944821992</v>
       </c>
       <c r="D88">
-        <v>0.04056303063070144</v>
+        <v>-0.01087132787625152</v>
       </c>
       <c r="E88">
-        <v>0.0326490356868789</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01395683437999044</v>
+      </c>
+      <c r="F88">
+        <v>-0.02394291685247131</v>
+      </c>
+      <c r="G88">
+        <v>-0.003475922246241648</v>
+      </c>
+      <c r="H88">
+        <v>-0.04356401439313624</v>
+      </c>
+      <c r="I88">
+        <v>0.05318282150745438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2781388432765429</v>
+        <v>0.4078312695261344</v>
       </c>
       <c r="C89">
-        <v>0.3659827717997046</v>
+        <v>0.1822048584863655</v>
       </c>
       <c r="D89">
-        <v>0.0421102790658455</v>
+        <v>-0.03040542456242535</v>
       </c>
       <c r="E89">
-        <v>0.09152973008217319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02106604738252887</v>
+      </c>
+      <c r="F89">
+        <v>-0.06634928689188602</v>
+      </c>
+      <c r="G89">
+        <v>-0.04051936383938295</v>
+      </c>
+      <c r="H89">
+        <v>-0.1365351249927738</v>
+      </c>
+      <c r="I89">
+        <v>-0.3863007936833412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2237133911512305</v>
+        <v>0.3109213453221134</v>
       </c>
       <c r="C90">
-        <v>0.2705554138716385</v>
+        <v>0.1220226242693472</v>
       </c>
       <c r="D90">
-        <v>0.03458154276861371</v>
+        <v>-0.03175802239151854</v>
       </c>
       <c r="E90">
-        <v>-0.004820647922520888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01737476416194786</v>
+      </c>
+      <c r="F90">
+        <v>0.01895520638516544</v>
+      </c>
+      <c r="G90">
+        <v>-0.06551965657694185</v>
+      </c>
+      <c r="H90">
+        <v>0.02046184956726897</v>
+      </c>
+      <c r="I90">
+        <v>0.08071602648073183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1749762650883818</v>
+        <v>0.07888120575825935</v>
       </c>
       <c r="C91">
-        <v>-0.1607029176401557</v>
+        <v>-0.2053977817810672</v>
       </c>
       <c r="D91">
-        <v>-0.107275128829293</v>
+        <v>0.1156714500238429</v>
       </c>
       <c r="E91">
-        <v>0.1060322510957344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07179723704384107</v>
+      </c>
+      <c r="F91">
+        <v>-0.07376040185251778</v>
+      </c>
+      <c r="G91">
+        <v>-0.0198529442285491</v>
+      </c>
+      <c r="H91">
+        <v>-0.003337550247384126</v>
+      </c>
+      <c r="I91">
+        <v>0.1237908514755596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2033736714709077</v>
+        <v>0.3282594911895618</v>
       </c>
       <c r="C92">
-        <v>0.2820063450676236</v>
+        <v>0.1580805070832324</v>
       </c>
       <c r="D92">
-        <v>-0.0405972304499616</v>
+        <v>0.004612858291405409</v>
       </c>
       <c r="E92">
-        <v>0.06152368143359353</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07959574216836345</v>
+      </c>
+      <c r="F92">
+        <v>-0.02382031619249916</v>
+      </c>
+      <c r="G92">
+        <v>-0.03771018231370547</v>
+      </c>
+      <c r="H92">
+        <v>-0.03923861049080644</v>
+      </c>
+      <c r="I92">
+        <v>-0.1203683011823986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2481235330738116</v>
+        <v>0.3311161162595008</v>
       </c>
       <c r="C93">
-        <v>0.2829784604660058</v>
+        <v>0.1305791228812278</v>
       </c>
       <c r="D93">
-        <v>0.01396893145303908</v>
+        <v>0.0182642068685144</v>
       </c>
       <c r="E93">
-        <v>0.00735461211578412</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02399188665860773</v>
+      </c>
+      <c r="F93">
+        <v>-0.01200862249525213</v>
+      </c>
+      <c r="G93">
+        <v>0.0122201890489046</v>
+      </c>
+      <c r="H93">
+        <v>-0.000485689231577621</v>
+      </c>
+      <c r="I93">
+        <v>0.1103092889916197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.327156915020761</v>
+        <v>0.152421102602866</v>
       </c>
       <c r="C94">
-        <v>-0.2266752729145748</v>
+        <v>-0.3491396489419123</v>
       </c>
       <c r="D94">
-        <v>-0.3616361377118557</v>
+        <v>0.3439628486227192</v>
       </c>
       <c r="E94">
-        <v>-0.185418992449282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.03819281492982255</v>
+      </c>
+      <c r="F94">
+        <v>0.114212067843027</v>
+      </c>
+      <c r="G94">
+        <v>-0.3029913843997022</v>
+      </c>
+      <c r="H94">
+        <v>0.05386584210890613</v>
+      </c>
+      <c r="I94">
+        <v>-0.4160879042263777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02351526866879326</v>
+        <v>0.02078139689315585</v>
       </c>
       <c r="C95">
-        <v>-0.03819395872565293</v>
+        <v>-0.06268002296719813</v>
       </c>
       <c r="D95">
-        <v>0.08431161207562532</v>
+        <v>-0.1154318710183929</v>
       </c>
       <c r="E95">
-        <v>0.1065016708389676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1983818222481569</v>
+      </c>
+      <c r="F95">
+        <v>0.07051800973481405</v>
+      </c>
+      <c r="G95">
+        <v>0.1356938557221604</v>
+      </c>
+      <c r="H95">
+        <v>-0.3880262590630659</v>
+      </c>
+      <c r="I95">
+        <v>-0.4972583800163335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0004566790500060696</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5.507270908695534e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004853986121641025</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.0009030234240428177</v>
+      </c>
+      <c r="F97">
+        <v>0.001634300010742313</v>
+      </c>
+      <c r="G97">
+        <v>0.0009091882242190973</v>
+      </c>
+      <c r="H97">
+        <v>-0.0003074866338904946</v>
+      </c>
+      <c r="I97">
+        <v>-0.000537568112568011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1548391953428803</v>
+        <v>0.1191605511675592</v>
       </c>
       <c r="C98">
-        <v>-0.0591115671601239</v>
+        <v>-0.1375784347801315</v>
       </c>
       <c r="D98">
-        <v>0.1132499775754225</v>
+        <v>-0.06192751682443409</v>
       </c>
       <c r="E98">
-        <v>-0.2132594775905841</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2670332092627637</v>
+      </c>
+      <c r="F98">
+        <v>0.1674155419185691</v>
+      </c>
+      <c r="G98">
+        <v>0.2552730706586203</v>
+      </c>
+      <c r="H98">
+        <v>0.1718412982222589</v>
+      </c>
+      <c r="I98">
+        <v>-0.03789313801772395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003636286804208124</v>
+        <v>0.001645219884812118</v>
       </c>
       <c r="C101">
-        <v>-0.02354873101156519</v>
+        <v>-0.03083386343249634</v>
       </c>
       <c r="D101">
-        <v>0.1010477225052862</v>
+        <v>-0.09650743576010322</v>
       </c>
       <c r="E101">
-        <v>0.01178397955237301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03820067105843646</v>
+      </c>
+      <c r="F101">
+        <v>-0.02882080051483928</v>
+      </c>
+      <c r="G101">
+        <v>0.000323468909996366</v>
+      </c>
+      <c r="H101">
+        <v>-0.1223786962904373</v>
+      </c>
+      <c r="I101">
+        <v>0.02112790127764324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1255879382252085</v>
+        <v>0.04150289423325303</v>
       </c>
       <c r="C102">
-        <v>-0.1382633148887678</v>
+        <v>-0.151519119883869</v>
       </c>
       <c r="D102">
-        <v>-0.07539691890400048</v>
+        <v>0.09530099658258216</v>
       </c>
       <c r="E102">
-        <v>-0.03940250182695023</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03034042788519493</v>
+      </c>
+      <c r="F102">
+        <v>0.06639650375822491</v>
+      </c>
+      <c r="G102">
+        <v>0.008845470661443177</v>
+      </c>
+      <c r="H102">
+        <v>-0.04966268209325175</v>
+      </c>
+      <c r="I102">
+        <v>0.02036537840772311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
